--- a/Post/Index/data/Result - Data Partition.xlsx
+++ b/Post/Index/data/Result - Data Partition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Data Validation</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Data Testing</t>
         </is>
       </c>
@@ -457,13 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172178</v>
+        <v>40320</v>
       </c>
       <c r="C2" t="n">
-        <v>120524</v>
+        <v>22579</v>
       </c>
       <c r="D2" t="n">
-        <v>51654</v>
+        <v>5645</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12096</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172178</v>
+        <v>40320</v>
       </c>
       <c r="C3" t="n">
-        <v>120524</v>
+        <v>22579</v>
       </c>
       <c r="D3" t="n">
-        <v>51654</v>
+        <v>5645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12096</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Result - Data Partition.xlsx
+++ b/Post/Index/data/Result - Data Partition.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40320</v>
+        <v>48004</v>
       </c>
       <c r="C2" t="n">
-        <v>22579</v>
+        <v>26881</v>
       </c>
       <c r="D2" t="n">
-        <v>5645</v>
+        <v>6721</v>
       </c>
       <c r="E2" t="n">
-        <v>12096</v>
+        <v>14402</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40320</v>
+        <v>48004</v>
       </c>
       <c r="C3" t="n">
-        <v>22579</v>
+        <v>26881</v>
       </c>
       <c r="D3" t="n">
-        <v>5645</v>
+        <v>6721</v>
       </c>
       <c r="E3" t="n">
-        <v>12096</v>
+        <v>14402</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Result - Data Partition.xlsx
+++ b/Post/Index/data/Result - Data Partition.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48004</v>
+        <v>47710</v>
       </c>
       <c r="C2" t="n">
-        <v>26881</v>
+        <v>26717</v>
       </c>
       <c r="D2" t="n">
-        <v>6721</v>
+        <v>6680</v>
       </c>
       <c r="E2" t="n">
-        <v>14402</v>
+        <v>14313</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48004</v>
+        <v>47710</v>
       </c>
       <c r="C3" t="n">
-        <v>26881</v>
+        <v>26717</v>
       </c>
       <c r="D3" t="n">
-        <v>6721</v>
+        <v>6680</v>
       </c>
       <c r="E3" t="n">
-        <v>14402</v>
+        <v>14313</v>
       </c>
     </row>
   </sheetData>
